--- a/output/KADIMA_14146496000110.xlsx
+++ b/output/KADIMA_14146496000110.xlsx
@@ -1549,10 +1549,10 @@
         <v>44165</v>
       </c>
       <c r="B106">
-        <v>2.41536764</v>
+        <v>2.41883098</v>
       </c>
       <c r="C106">
-        <v>-0.01121046486811017</v>
+        <v>-0.01020778676444234</v>
       </c>
     </row>
   </sheetData>

--- a/output/KADIMA_14146496000110.xlsx
+++ b/output/KADIMA_14146496000110.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KADIMA HIGH VOL FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1173 +383,858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40999</v>
       </c>
       <c r="B2">
-        <v>-0.02696005999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41029</v>
       </c>
       <c r="B3">
-        <v>-0.03009357000000001</v>
-      </c>
-      <c r="C3">
         <v>-0.003220330298055463</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41060</v>
       </c>
       <c r="B4">
-        <v>0.1500685399999999</v>
-      </c>
-      <c r="C4">
         <v>0.1857520523912806</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41090</v>
       </c>
       <c r="B5">
-        <v>0.1975913499999999</v>
-      </c>
-      <c r="C5">
         <v>0.04132171983419353</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41121</v>
       </c>
       <c r="B6">
-        <v>0.1489774800000001</v>
-      </c>
-      <c r="C6">
         <v>-0.04059303701550598</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41152</v>
       </c>
       <c r="B7">
-        <v>0.1434279700000001</v>
-      </c>
-      <c r="C7">
         <v>-0.004829955413921616</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41182</v>
       </c>
       <c r="B8">
-        <v>0.07575050999999999</v>
-      </c>
-      <c r="C8">
         <v>-0.05918821454052769</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41213</v>
       </c>
       <c r="B9">
-        <v>0.0836633200000001</v>
-      </c>
-      <c r="C9">
         <v>0.007355618172098399</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41243</v>
       </c>
       <c r="B10">
-        <v>0.13344212</v>
-      </c>
-      <c r="C10">
         <v>0.04593566939222415</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41274</v>
       </c>
       <c r="B11">
-        <v>0.17487458</v>
-      </c>
-      <c r="C11">
         <v>0.03655454413499304</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41305</v>
       </c>
       <c r="B12">
-        <v>0.1945135200000001</v>
-      </c>
-      <c r="C12">
         <v>0.01671577573837713</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41333</v>
       </c>
       <c r="B13">
-        <v>0.22125135</v>
-      </c>
-      <c r="C13">
         <v>0.02238386552543981</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41364</v>
       </c>
       <c r="B14">
-        <v>0.23176215</v>
-      </c>
-      <c r="C14">
         <v>0.008606582093031001</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41394</v>
       </c>
       <c r="B15">
-        <v>0.25181575</v>
-      </c>
-      <c r="C15">
         <v>0.01628041582540907</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41425</v>
       </c>
       <c r="B16">
-        <v>0.17931162</v>
-      </c>
-      <c r="C16">
         <v>-0.05791917061276786</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41455</v>
       </c>
       <c r="B17">
-        <v>0.1298085499999999</v>
-      </c>
-      <c r="C17">
         <v>-0.04197624203855477</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41486</v>
       </c>
       <c r="B18">
-        <v>0.08796037999999995</v>
-      </c>
-      <c r="C18">
         <v>-0.03704005426406087</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41517</v>
       </c>
       <c r="B19">
-        <v>0.3383892799999999</v>
-      </c>
-      <c r="C19">
         <v>0.2301820035027378</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41547</v>
       </c>
       <c r="B20">
-        <v>0.48104966</v>
-      </c>
-      <c r="C20">
         <v>0.1065910958282632</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41578</v>
       </c>
       <c r="B21">
-        <v>0.42303968</v>
-      </c>
-      <c r="C21">
         <v>-0.0391681532137147</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41608</v>
       </c>
       <c r="B22">
-        <v>0.4463704799999999</v>
-      </c>
-      <c r="C22">
         <v>0.01639504528784452</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41639</v>
       </c>
       <c r="B23">
-        <v>0.5308585100000001</v>
-      </c>
-      <c r="C23">
         <v>0.05841382354540325</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41670</v>
       </c>
       <c r="B24">
-        <v>0.5297631700000001</v>
-      </c>
-      <c r="C24">
         <v>-0.0007155070131203978</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41698</v>
       </c>
       <c r="B25">
-        <v>0.6538139199999999</v>
-      </c>
-      <c r="C25">
         <v>0.08109147378675607</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41729</v>
       </c>
       <c r="B26">
-        <v>0.69156258</v>
-      </c>
-      <c r="C26">
         <v>0.0228252160315594</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41759</v>
       </c>
       <c r="B27">
-        <v>0.65888543</v>
-      </c>
-      <c r="C27">
         <v>-0.01931773047379659</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41790</v>
       </c>
       <c r="B28">
-        <v>0.65205267</v>
-      </c>
-      <c r="C28">
         <v>-0.004118886016136747</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41820</v>
       </c>
       <c r="B29">
-        <v>0.6440303000000001</v>
-      </c>
-      <c r="C29">
         <v>-0.004856001352547601</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41851</v>
       </c>
       <c r="B30">
-        <v>0.6679288000000001</v>
-      </c>
-      <c r="C30">
         <v>0.01453653256877319</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41882</v>
       </c>
       <c r="B31">
-        <v>0.70742415</v>
-      </c>
-      <c r="C31">
         <v>0.02367927815623783</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41912</v>
       </c>
       <c r="B32">
-        <v>0.6122261600000001</v>
-      </c>
-      <c r="C32">
         <v>-0.05575532593936894</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41943</v>
       </c>
       <c r="B33">
-        <v>0.62114253</v>
-      </c>
-      <c r="C33">
         <v>0.005530470985534608</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41973</v>
       </c>
       <c r="B34">
-        <v>0.71653403</v>
-      </c>
-      <c r="C34">
         <v>0.05884214264614984</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42004</v>
       </c>
       <c r="B35">
-        <v>0.72563132</v>
-      </c>
-      <c r="C35">
         <v>0.005299801717301156</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42035</v>
       </c>
       <c r="B36">
-        <v>0.7093584900000001</v>
-      </c>
-      <c r="C36">
         <v>-0.009430073394819827</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42063</v>
       </c>
       <c r="B37">
-        <v>0.78938774</v>
-      </c>
-      <c r="C37">
         <v>0.04681829497333823</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42094</v>
       </c>
       <c r="B38">
-        <v>0.86660111</v>
-      </c>
-      <c r="C38">
         <v>0.04315072036874468</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42124</v>
       </c>
       <c r="B39">
-        <v>0.9339881299999999</v>
-      </c>
-      <c r="C39">
         <v>0.03610145715599611</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42155</v>
       </c>
       <c r="B40">
-        <v>0.9480152100000001</v>
-      </c>
-      <c r="C40">
         <v>0.007252929727133539</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42185</v>
       </c>
       <c r="B41">
-        <v>0.87201522</v>
-      </c>
-      <c r="C41">
         <v>-0.03901406396103047</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42216</v>
       </c>
       <c r="B42">
-        <v>0.89273175</v>
-      </c>
-      <c r="C42">
         <v>0.01106643246201822</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42247</v>
       </c>
       <c r="B43">
-        <v>0.85603349</v>
-      </c>
-      <c r="C43">
         <v>-0.01938904443273592</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42277</v>
       </c>
       <c r="B44">
-        <v>0.9569052600000001</v>
-      </c>
-      <c r="C44">
         <v>0.05434803334286831</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42308</v>
       </c>
       <c r="B45">
-        <v>0.98033652</v>
-      </c>
-      <c r="C45">
         <v>0.01197363024104692</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42338</v>
       </c>
       <c r="B46">
-        <v>1.00144411</v>
-      </c>
-      <c r="C46">
         <v>0.0106585874606806</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42369</v>
       </c>
       <c r="B47">
-        <v>1.01101811</v>
-      </c>
-      <c r="C47">
         <v>0.004783546016680962</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42400</v>
       </c>
       <c r="B48">
-        <v>1.06998983</v>
-      </c>
-      <c r="C48">
         <v>0.02932431075919029</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42429</v>
       </c>
       <c r="B49">
-        <v>1.04235237</v>
-      </c>
-      <c r="C49">
         <v>-0.01335149554816883</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42460</v>
       </c>
       <c r="B50">
-        <v>1.29307073</v>
-      </c>
-      <c r="C50">
         <v>0.1227595999998765</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42490</v>
       </c>
       <c r="B51">
-        <v>1.37534464</v>
-      </c>
-      <c r="C51">
         <v>0.03587935990094793</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42521</v>
       </c>
       <c r="B52">
-        <v>1.34397685</v>
-      </c>
-      <c r="C52">
         <v>-0.01320557424458624</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42551</v>
       </c>
       <c r="B53">
-        <v>1.41649574</v>
-      </c>
-      <c r="C53">
         <v>0.0309383985596956</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42582</v>
       </c>
       <c r="B54">
-        <v>1.30021966</v>
-      </c>
-      <c r="C54">
         <v>-0.04811764327794743</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42613</v>
       </c>
       <c r="B55">
-        <v>1.19396235</v>
-      </c>
-      <c r="C55">
         <v>-0.04619441866695473</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42643</v>
       </c>
       <c r="B56">
-        <v>1.21615864</v>
-      </c>
-      <c r="C56">
         <v>0.01011698765022118</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42674</v>
       </c>
       <c r="B57">
-        <v>1.22045049</v>
-      </c>
-      <c r="C57">
         <v>0.001936616775773725</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42704</v>
       </c>
       <c r="B58">
-        <v>1.13708356</v>
-      </c>
-      <c r="C58">
         <v>-0.03754505240060535</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42735</v>
       </c>
       <c r="B59">
-        <v>1.24840739</v>
-      </c>
-      <c r="C59">
         <v>0.05209147273586257</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42766</v>
       </c>
       <c r="B60">
-        <v>1.3027493</v>
-      </c>
-      <c r="C60">
         <v>0.02416906751049219</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42794</v>
       </c>
       <c r="B61">
-        <v>1.30122208</v>
-      </c>
-      <c r="C61">
         <v>-0.0006632159219416289</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42825</v>
       </c>
       <c r="B62">
-        <v>1.32932358</v>
-      </c>
-      <c r="C62">
         <v>0.01221155500124516</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42855</v>
       </c>
       <c r="B63">
-        <v>1.29448404</v>
-      </c>
-      <c r="C63">
         <v>-0.01495693440754164</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42886</v>
       </c>
       <c r="B64">
-        <v>1.52508847</v>
-      </c>
-      <c r="C64">
         <v>0.1005038283029418</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42916</v>
       </c>
       <c r="B65">
-        <v>1.56645753</v>
-      </c>
-      <c r="C65">
         <v>0.01638321210979199</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42947</v>
       </c>
       <c r="B66">
-        <v>1.69718013</v>
-      </c>
-      <c r="C66">
         <v>0.05093503339601324</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42978</v>
       </c>
       <c r="B67">
-        <v>1.68588569</v>
-      </c>
-      <c r="C67">
         <v>-0.004187499334721845</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43008</v>
       </c>
       <c r="B68">
-        <v>1.73606684</v>
-      </c>
-      <c r="C68">
         <v>0.01868327836394257</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43039</v>
       </c>
       <c r="B69">
-        <v>1.73130466</v>
-      </c>
-      <c r="C69">
         <v>-0.001740520344890251</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43069</v>
       </c>
       <c r="B70">
-        <v>1.71609802</v>
-      </c>
-      <c r="C70">
         <v>-0.005567537090498065</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43100</v>
       </c>
       <c r="B71">
-        <v>1.71163702</v>
-      </c>
-      <c r="C71">
         <v>-0.001642429679323598</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43131</v>
       </c>
       <c r="B72">
-        <v>1.79159597</v>
-      </c>
-      <c r="C72">
         <v>0.029487335292391</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43159</v>
       </c>
       <c r="B73">
-        <v>1.77822112</v>
-      </c>
-      <c r="C73">
         <v>-0.004791112375764017</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43190</v>
       </c>
       <c r="B74">
-        <v>1.78532277</v>
-      </c>
-      <c r="C74">
         <v>0.002556186024530671</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43220</v>
       </c>
       <c r="B75">
-        <v>1.83544063</v>
-      </c>
-      <c r="C75">
         <v>0.0179935555547841</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43251</v>
       </c>
       <c r="B76">
-        <v>1.85378094</v>
-      </c>
-      <c r="C76">
         <v>0.006468239823452127</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43281</v>
       </c>
       <c r="B77">
-        <v>1.87502505</v>
-      </c>
-      <c r="C77">
         <v>0.007444197871753877</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43312</v>
       </c>
       <c r="B78">
-        <v>1.88958094</v>
-      </c>
-      <c r="C78">
         <v>0.005062874147826912</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43343</v>
       </c>
       <c r="B79">
-        <v>2.00022922</v>
-      </c>
-      <c r="C79">
         <v>0.03829215457103619</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43373</v>
       </c>
       <c r="B80">
-        <v>2.01903232</v>
-      </c>
-      <c r="C80">
         <v>0.006267221142523205</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43404</v>
       </c>
       <c r="B81">
-        <v>2.1526523</v>
-      </c>
-      <c r="C81">
         <v>0.04425920819555862</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43434</v>
       </c>
       <c r="B82">
-        <v>2.19942964</v>
-      </c>
-      <c r="C82">
         <v>0.01483745606833953</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43465</v>
       </c>
       <c r="B83">
-        <v>2.14883252</v>
-      </c>
-      <c r="C83">
         <v>-0.01581441872245704</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43496</v>
       </c>
       <c r="B84">
-        <v>2.17191205</v>
-      </c>
-      <c r="C84">
         <v>0.007329551461822348</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43524</v>
       </c>
       <c r="B85">
-        <v>2.05138769</v>
-      </c>
-      <c r="C85">
         <v>-0.0379973839438581</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43555</v>
       </c>
       <c r="B86">
-        <v>2.20415972</v>
-      </c>
-      <c r="C86">
         <v>0.05006641093187336</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43585</v>
       </c>
       <c r="B87">
-        <v>2.19488663</v>
-      </c>
-      <c r="C87">
         <v>-0.002894078576082926</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43616</v>
       </c>
       <c r="B88">
-        <v>2.15817619</v>
-      </c>
-      <c r="C88">
         <v>-0.01149037329064795</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43646</v>
       </c>
       <c r="B89">
-        <v>2.21581788</v>
-      </c>
-      <c r="C89">
         <v>0.01825157512823883</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43677</v>
       </c>
       <c r="B90">
-        <v>2.17953811</v>
-      </c>
-      <c r="C90">
         <v>-0.01128166188316604</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43708</v>
       </c>
       <c r="B91">
-        <v>2.17385885</v>
-      </c>
-      <c r="C91">
         <v>-0.001786190258936782</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43738</v>
       </c>
       <c r="B92">
-        <v>2.17202246</v>
-      </c>
-      <c r="C92">
         <v>-0.0005785985095083657</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43769</v>
       </c>
       <c r="B93">
-        <v>2.25224717</v>
-      </c>
-      <c r="C93">
         <v>0.02529134361803975</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43799</v>
       </c>
       <c r="B94">
-        <v>2.20793262</v>
-      </c>
-      <c r="C94">
         <v>-0.01362582475550289</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43830</v>
       </c>
       <c r="B95">
-        <v>2.23875239</v>
-      </c>
-      <c r="C95">
         <v>0.009607362014979026</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43861</v>
       </c>
       <c r="B96">
-        <v>2.28007496</v>
-      </c>
-      <c r="C96">
         <v>0.01275879259173607</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43890</v>
       </c>
       <c r="B97">
-        <v>2.33282923</v>
-      </c>
-      <c r="C97">
         <v>0.01608325134130473</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43921</v>
       </c>
       <c r="B98">
-        <v>2.32559961</v>
-      </c>
-      <c r="C98">
         <v>-0.00216921405241044</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43951</v>
       </c>
       <c r="B99">
-        <v>2.39143163</v>
-      </c>
-      <c r="C99">
         <v>0.01979553395485278</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43982</v>
       </c>
       <c r="B100">
-        <v>2.47089172</v>
-      </c>
-      <c r="C100">
         <v>0.02342965999877755</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>44012</v>
       </c>
       <c r="B101">
-        <v>2.4927699</v>
-      </c>
-      <c r="C101">
         <v>0.006303331179688954</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>44043</v>
       </c>
       <c r="B102">
-        <v>2.55152764</v>
-      </c>
-      <c r="C102">
         <v>0.01682267703921769</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>44074</v>
       </c>
       <c r="B103">
-        <v>2.50405085</v>
-      </c>
-      <c r="C103">
         <v>-0.01336799113296505</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>44104</v>
       </c>
       <c r="B104">
-        <v>2.44117532</v>
-      </c>
-      <c r="C104">
         <v>-0.01794366939623604</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>44135</v>
       </c>
       <c r="B105">
-        <v>2.45408959</v>
-      </c>
-      <c r="C105">
         <v>0.003752866041129232</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>44165</v>
       </c>
       <c r="B106">
-        <v>2.41883098</v>
-      </c>
-      <c r="C106">
-        <v>-0.01020778676444234</v>
+        <v>-0.009556648471298113</v>
       </c>
     </row>
   </sheetData>
